--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H2">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I2">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J2">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.6702176424464</v>
+        <v>2.675209</v>
       </c>
       <c r="N2">
-        <v>2.6702176424464</v>
+        <v>5.350417999999999</v>
       </c>
       <c r="O2">
-        <v>0.6260777234051949</v>
+        <v>0.6038885578943551</v>
       </c>
       <c r="P2">
-        <v>0.6260777234051949</v>
+        <v>0.5040571546736343</v>
       </c>
       <c r="Q2">
-        <v>107.7781207042947</v>
+        <v>108.339907826824</v>
       </c>
       <c r="R2">
-        <v>107.7781207042947</v>
+        <v>433.359631307296</v>
       </c>
       <c r="S2">
-        <v>0.2752483622849165</v>
+        <v>0.2619836105108839</v>
       </c>
       <c r="T2">
-        <v>0.2752483622849165</v>
+        <v>0.1788911937230294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H3">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I3">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J3">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.5947762115487</v>
+        <v>1.754762333333333</v>
       </c>
       <c r="N3">
-        <v>1.5947762115487</v>
+        <v>5.264286999999999</v>
       </c>
       <c r="O3">
-        <v>0.3739222765948052</v>
+        <v>0.3961114421056449</v>
       </c>
       <c r="P3">
-        <v>0.3739222765948052</v>
+        <v>0.4959428453263656</v>
       </c>
       <c r="Q3">
-        <v>64.37002748104038</v>
+        <v>71.06390171807733</v>
       </c>
       <c r="R3">
-        <v>64.37002748104038</v>
+        <v>426.383410308464</v>
       </c>
       <c r="S3">
-        <v>0.1643909220963566</v>
+        <v>0.1718441331780693</v>
       </c>
       <c r="T3">
-        <v>0.1643909220963566</v>
+        <v>0.1760114042548872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H4">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I4">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J4">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.6702176424464</v>
+        <v>2.675209</v>
       </c>
       <c r="N4">
-        <v>2.6702176424464</v>
+        <v>5.350417999999999</v>
       </c>
       <c r="O4">
-        <v>0.6260777234051949</v>
+        <v>0.6038885578943551</v>
       </c>
       <c r="P4">
-        <v>0.6260777234051949</v>
+        <v>0.5040571546736343</v>
       </c>
       <c r="Q4">
-        <v>16.01118363377236</v>
+        <v>17.29479369287833</v>
       </c>
       <c r="R4">
-        <v>16.01118363377236</v>
+        <v>103.76876215727</v>
       </c>
       <c r="S4">
-        <v>0.04089004377363661</v>
+        <v>0.04182163881792877</v>
       </c>
       <c r="T4">
-        <v>0.04089004377363661</v>
+        <v>0.04283582593393861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H5">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I5">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J5">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5947762115487</v>
+        <v>1.754762333333333</v>
       </c>
       <c r="N5">
-        <v>1.5947762115487</v>
+        <v>5.264286999999999</v>
       </c>
       <c r="O5">
-        <v>0.3739222765948052</v>
+        <v>0.3961114421056449</v>
       </c>
       <c r="P5">
-        <v>0.3739222765948052</v>
+        <v>0.4959428453263656</v>
       </c>
       <c r="Q5">
-        <v>9.562611815598693</v>
+        <v>11.34425479842277</v>
       </c>
       <c r="R5">
-        <v>9.562611815598693</v>
+        <v>102.098293185805</v>
       </c>
       <c r="S5">
-        <v>0.02442140597934039</v>
+        <v>0.02743226286842359</v>
       </c>
       <c r="T5">
-        <v>0.02442140597934039</v>
+        <v>0.0421462550399419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H6">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I6">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J6">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.6702176424464</v>
+        <v>2.675209</v>
       </c>
       <c r="N6">
-        <v>2.6702176424464</v>
+        <v>5.350417999999999</v>
       </c>
       <c r="O6">
-        <v>0.6260777234051949</v>
+        <v>0.6038885578943551</v>
       </c>
       <c r="P6">
-        <v>0.6260777234051949</v>
+        <v>0.5040571546736343</v>
       </c>
       <c r="Q6">
-        <v>2.028588887182839</v>
+        <v>2.044614976674333</v>
       </c>
       <c r="R6">
-        <v>2.028588887182839</v>
+        <v>12.267689860046</v>
       </c>
       <c r="S6">
-        <v>0.005180696836219824</v>
+        <v>0.004944213304574595</v>
       </c>
       <c r="T6">
-        <v>0.005180696836219824</v>
+        <v>0.005064111940162121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H7">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I7">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J7">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5947762115487</v>
+        <v>1.754762333333333</v>
       </c>
       <c r="N7">
-        <v>1.5947762115487</v>
+        <v>5.264286999999999</v>
       </c>
       <c r="O7">
-        <v>0.3739222765948052</v>
+        <v>0.3961114421056449</v>
       </c>
       <c r="P7">
-        <v>0.3739222765948052</v>
+        <v>0.4959428453263656</v>
       </c>
       <c r="Q7">
-        <v>1.211566146843096</v>
+        <v>1.341133850565444</v>
       </c>
       <c r="R7">
-        <v>1.211566146843096</v>
+        <v>12.070204655089</v>
       </c>
       <c r="S7">
-        <v>0.003094149309147497</v>
+        <v>0.0032430809237084</v>
       </c>
       <c r="T7">
-        <v>0.003094149309147497</v>
+        <v>0.004982589893563499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H8">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I8">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J8">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6702176424464</v>
+        <v>2.675209</v>
       </c>
       <c r="N8">
-        <v>2.6702176424464</v>
+        <v>5.350417999999999</v>
       </c>
       <c r="O8">
-        <v>0.6260777234051949</v>
+        <v>0.6038885578943551</v>
       </c>
       <c r="P8">
-        <v>0.6260777234051949</v>
+        <v>0.5040571546736343</v>
       </c>
       <c r="Q8">
-        <v>1.425120185862942</v>
+        <v>1.433334178856</v>
       </c>
       <c r="R8">
-        <v>1.425120185862942</v>
+        <v>8.600005073136</v>
       </c>
       <c r="S8">
-        <v>0.003639532723846427</v>
+        <v>0.003466036392107534</v>
       </c>
       <c r="T8">
-        <v>0.003639532723846427</v>
+        <v>0.003550088800187481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.533709373801184</v>
+        <v>0.535784</v>
       </c>
       <c r="H9">
-        <v>0.533709373801184</v>
+        <v>1.607352</v>
       </c>
       <c r="I9">
-        <v>0.005813228274680102</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J9">
-        <v>0.005813228274680102</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5947762115487</v>
+        <v>1.754762333333333</v>
       </c>
       <c r="N9">
-        <v>1.5947762115487</v>
+        <v>5.264286999999999</v>
       </c>
       <c r="O9">
-        <v>0.3739222765948052</v>
+        <v>0.3961114421056449</v>
       </c>
       <c r="P9">
-        <v>0.3739222765948052</v>
+        <v>0.4959428453263656</v>
       </c>
       <c r="Q9">
-        <v>0.8511470132186812</v>
+        <v>0.9401735820026667</v>
       </c>
       <c r="R9">
-        <v>0.8511470132186812</v>
+        <v>8.461562238023999</v>
       </c>
       <c r="S9">
-        <v>0.002173695550833675</v>
+        <v>0.002273493438020306</v>
       </c>
       <c r="T9">
-        <v>0.002173695550833675</v>
+        <v>0.003492939489900145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H10">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I10">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J10">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.6702176424464</v>
+        <v>2.675209</v>
       </c>
       <c r="N10">
-        <v>2.6702176424464</v>
+        <v>5.350417999999999</v>
       </c>
       <c r="O10">
-        <v>0.6260777234051949</v>
+        <v>0.6038885578943551</v>
       </c>
       <c r="P10">
-        <v>0.6260777234051949</v>
+        <v>0.5040571546736343</v>
       </c>
       <c r="Q10">
-        <v>88.31732524709749</v>
+        <v>90.299962310822</v>
       </c>
       <c r="R10">
-        <v>88.31732524709749</v>
+        <v>541.7997738649319</v>
       </c>
       <c r="S10">
-        <v>0.2255485526820772</v>
+        <v>0.218360072753621</v>
       </c>
       <c r="T10">
-        <v>0.2255485526820772</v>
+        <v>0.2236553691288256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.0749538326707</v>
+        <v>33.754358</v>
       </c>
       <c r="H11">
-        <v>33.0749538326707</v>
+        <v>101.263074</v>
       </c>
       <c r="I11">
-        <v>0.3602564733581859</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J11">
-        <v>0.3602564733581859</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.5947762115487</v>
+        <v>1.754762333333333</v>
       </c>
       <c r="N11">
-        <v>1.5947762115487</v>
+        <v>5.264286999999999</v>
       </c>
       <c r="O11">
-        <v>0.3739222765948052</v>
+        <v>0.3961114421056449</v>
       </c>
       <c r="P11">
-        <v>0.3739222765948052</v>
+        <v>0.4959428453263656</v>
       </c>
       <c r="Q11">
-        <v>52.74714957041474</v>
+        <v>59.23087600424866</v>
       </c>
       <c r="R11">
-        <v>52.74714957041474</v>
+        <v>533.0778840382379</v>
       </c>
       <c r="S11">
-        <v>0.1347079206761087</v>
+        <v>0.1432299423230037</v>
       </c>
       <c r="T11">
-        <v>0.1347079206761087</v>
+        <v>0.2200549662073277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H12">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I12">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J12">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.6702176424464</v>
+        <v>2.675209</v>
       </c>
       <c r="N12">
-        <v>2.6702176424464</v>
+        <v>5.350417999999999</v>
       </c>
       <c r="O12">
-        <v>0.6260777234051949</v>
+        <v>0.6038885578943551</v>
       </c>
       <c r="P12">
-        <v>0.6260777234051949</v>
+        <v>0.5040571546736343</v>
       </c>
       <c r="Q12">
-        <v>29.59091268179757</v>
+        <v>30.317629956872</v>
       </c>
       <c r="R12">
-        <v>29.59091268179757</v>
+        <v>121.270519827488</v>
       </c>
       <c r="S12">
-        <v>0.07557053510449821</v>
+        <v>0.07331298611523936</v>
       </c>
       <c r="T12">
-        <v>0.07557053510449821</v>
+        <v>0.05006056514749112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0818355071188</v>
+        <v>11.332808</v>
       </c>
       <c r="H13">
-        <v>11.0818355071188</v>
+        <v>22.665616</v>
       </c>
       <c r="I13">
-        <v>0.1207047180875166</v>
+        <v>0.1214015154896589</v>
       </c>
       <c r="J13">
-        <v>0.1207047180875166</v>
+        <v>0.09931525558823626</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5947762115487</v>
+        <v>1.754762333333333</v>
       </c>
       <c r="N13">
-        <v>1.5947762115487</v>
+        <v>5.264286999999999</v>
       </c>
       <c r="O13">
-        <v>0.3739222765948052</v>
+        <v>0.3961114421056449</v>
       </c>
       <c r="P13">
-        <v>0.3739222765948052</v>
+        <v>0.4959428453263656</v>
       </c>
       <c r="Q13">
-        <v>17.67304764704879</v>
+        <v>19.88638460929866</v>
       </c>
       <c r="R13">
-        <v>17.67304764704879</v>
+        <v>119.318307655792</v>
       </c>
       <c r="S13">
-        <v>0.04513418298301836</v>
+        <v>0.04808852937441959</v>
       </c>
       <c r="T13">
-        <v>0.04513418298301836</v>
+        <v>0.04925469044074512</v>
       </c>
     </row>
   </sheetData>
